--- a/docs/requirements/Master Data Tables - Test Data/master-doc_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-doc_type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
   <si>
     <t>code</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>Preuve de naissance et âge dune personne</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>Certification of Exception</t>
+  </si>
+  <si>
+    <t>Certificate of Exception</t>
+  </si>
+  <si>
+    <t>شهادة استثناء</t>
+  </si>
+  <si>
+    <t>Certification dexception</t>
   </si>
 </sst>
 </file>
@@ -1021,9 +1036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1464,7 +1481,77 @@
         <v>12</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-doc_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-doc_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3F70EF6A-BDF5-4F74-845D-E04BA33D6E9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-doc_type" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="155">
   <si>
     <t>code</t>
   </si>
@@ -120,9 +121,6 @@
     <t>Preuve de résidence</t>
   </si>
   <si>
-    <t>PSP</t>
-  </si>
-  <si>
     <t>Passport</t>
   </si>
   <si>
@@ -196,12 +194,303 @@
   </si>
   <si>
     <t>Certification dexception</t>
+  </si>
+  <si>
+    <t>DOC002</t>
+  </si>
+  <si>
+    <t>PAN card</t>
+  </si>
+  <si>
+    <t>DOC003</t>
+  </si>
+  <si>
+    <t>Either Ration or PDS Photo card</t>
+  </si>
+  <si>
+    <t>DOC004</t>
+  </si>
+  <si>
+    <t>Voter Identification card</t>
+  </si>
+  <si>
+    <t>DOC005</t>
+  </si>
+  <si>
+    <t>Driving licence of the applicant</t>
+  </si>
+  <si>
+    <t>DOC006</t>
+  </si>
+  <si>
+    <t>Photo identification cards issued by the Government</t>
+  </si>
+  <si>
+    <t>DOC007</t>
+  </si>
+  <si>
+    <t>Service photo ID cards that is issued by a PSU</t>
+  </si>
+  <si>
+    <t>DOC008</t>
+  </si>
+  <si>
+    <t>Licence of Arms</t>
+  </si>
+  <si>
+    <t>DOC009</t>
+  </si>
+  <si>
+    <t>Photo Bank ATM card</t>
+  </si>
+  <si>
+    <t>DOC010</t>
+  </si>
+  <si>
+    <t>Photo Credit card</t>
+  </si>
+  <si>
+    <t>DOC011</t>
+  </si>
+  <si>
+    <t>Photo card of the Freedom Fighter</t>
+  </si>
+  <si>
+    <t>DOC012</t>
+  </si>
+  <si>
+    <t>Certificate of Marriage</t>
+  </si>
+  <si>
+    <t>DOC013</t>
+  </si>
+  <si>
+    <t>Passbook or Bank Statement</t>
+  </si>
+  <si>
+    <t>DOC014</t>
+  </si>
+  <si>
+    <t>Account statement or passbook of the Post Office</t>
+  </si>
+  <si>
+    <t>DOC015</t>
+  </si>
+  <si>
+    <t>Ration Card</t>
+  </si>
+  <si>
+    <t>DOC016</t>
+  </si>
+  <si>
+    <t>PSU issued Service photo ID card with address</t>
+  </si>
+  <si>
+    <t>DOC017</t>
+  </si>
+  <si>
+    <t>Previous 3 months’ electricity bill</t>
+  </si>
+  <si>
+    <t>DOC018</t>
+  </si>
+  <si>
+    <t>Water bill as long as it is not more than 3 months’ old</t>
+  </si>
+  <si>
+    <t>DOC024</t>
+  </si>
+  <si>
+    <t>PDS Card</t>
+  </si>
+  <si>
+    <t>DOC025</t>
+  </si>
+  <si>
+    <t>Medical card issued by the State Govt, CGHS, ECHS and ESIC</t>
+  </si>
+  <si>
+    <t>Medical card issued by the State Government, CGHS, ECHS and also ESIC</t>
+  </si>
+  <si>
+    <t>DOC026</t>
+  </si>
+  <si>
+    <t>Canteen card of the Army</t>
+  </si>
+  <si>
+    <t>DOC027</t>
+  </si>
+  <si>
+    <t>Family entitlement document</t>
+  </si>
+  <si>
+    <t>Any family entitlement document issued by any Central or State Government</t>
+  </si>
+  <si>
+    <t>DOC028</t>
+  </si>
+  <si>
+    <t>Birth Certificate</t>
+  </si>
+  <si>
+    <t>Registrar of Birth/municipal Corporation or any local government Birth Certificate</t>
+  </si>
+  <si>
+    <t>بطاقة PAN</t>
+  </si>
+  <si>
+    <t>بطاقة الصورة التموينية أو الحصة الخاصة</t>
+  </si>
+  <si>
+    <t>بطاقة هويه الناخب</t>
+  </si>
+  <si>
+    <t>رخصه القيادة لمقدم الطلب</t>
+  </si>
+  <si>
+    <t>بطاقات هويه مصوره صادره عن الحكومة</t>
+  </si>
+  <si>
+    <t>خدمه بطاقات هويه الصورة التي يتم إصدارها من قبل الأمير سلطان</t>
+  </si>
+  <si>
+    <t>ترخيص الاسلحه</t>
+  </si>
+  <si>
+    <t>بطاقة الصراف الألى من بنك الصور</t>
+  </si>
+  <si>
+    <t>بطاقة الصور الائتمانية</t>
+  </si>
+  <si>
+    <t>صوره بطاقة من الحرية مقاتله</t>
+  </si>
+  <si>
+    <t>شهادة الزواج</t>
+  </si>
+  <si>
+    <t>دفتر أو كشف حساب بنكي</t>
+  </si>
+  <si>
+    <t>كشف حساب أو دفتر بيانات مكتب البريد</t>
+  </si>
+  <si>
+    <t>البطاقة التموينية</t>
+  </si>
+  <si>
+    <t>أصدرت الهيئة بطاقة هويه صوره الخدمة مع عنوان</t>
+  </si>
+  <si>
+    <t>فاتورة كهرباء لمده 3 أشهر سابقه</t>
+  </si>
+  <si>
+    <t>فاتورة المياه طالما انها ليست أكثر من 3 أشهر من العمر</t>
+  </si>
+  <si>
+    <t>بطاقة الهوية الخاصة</t>
+  </si>
+  <si>
+    <t>البطاقة الطبية الصادرة عن حكومة الولاية و CGHS و ECHS و ESIC</t>
+  </si>
+  <si>
+    <t>البطاقة الطبية الصادرة عن حكومة الولاية و CGHS و ECHS و ESIC أيضا</t>
+  </si>
+  <si>
+    <t>بطاقة المقصف للجيش</t>
+  </si>
+  <si>
+    <t>وثيقة استحقاق الأسرة</t>
+  </si>
+  <si>
+    <t>اي وثيقة استحقاق عائلي صادره عن اي حكومة مركزيه أو حكوميه</t>
+  </si>
+  <si>
+    <t>مسجل الميلاد/مؤسسه البلدية أو اي شهادة ميلاد حكوميه محليه</t>
+  </si>
+  <si>
+    <t>Carte PAN</t>
+  </si>
+  <si>
+    <t>Soit ration ou PDS photo carte</t>
+  </si>
+  <si>
+    <t>Carte d’identification des électeurs</t>
+  </si>
+  <si>
+    <t>Permis de conduire du demandeur</t>
+  </si>
+  <si>
+    <t>Cartes d’identité photo émises par le gouvernement</t>
+  </si>
+  <si>
+    <t>Cartes d’identité de service de photo émises par un PSU</t>
+  </si>
+  <si>
+    <t>Licence d’armes</t>
+  </si>
+  <si>
+    <t>Photo banque carte bancaire</t>
+  </si>
+  <si>
+    <t>Carte de crédit photo</t>
+  </si>
+  <si>
+    <t>Carte photo du Freedom Fighter</t>
+  </si>
+  <si>
+    <t>Certificat de mariage</t>
+  </si>
+  <si>
+    <t>Livret ou relevé bancaire</t>
+  </si>
+  <si>
+    <t>Relevé de compte ou livret du Bureau de poste</t>
+  </si>
+  <si>
+    <t>Carte de ration</t>
+  </si>
+  <si>
+    <t>PSU a émis la carte didentité de photo de service avec ladresse</t>
+  </si>
+  <si>
+    <t>PSU a émis la carte d’identité de photo de service avec l’adresse</t>
+  </si>
+  <si>
+    <t>Facture d’électricité précédente de 3 mois</t>
+  </si>
+  <si>
+    <t>Facture d’eau tant qu’elle n’a pas plus de 3 mois</t>
+  </si>
+  <si>
+    <t>Carte PDS</t>
+  </si>
+  <si>
+    <t>Carte médicale délivrée par le govt de l'État</t>
+  </si>
+  <si>
+    <t>Carte médicale délivrée par le gouvernement de l’État, le CGHS, l’ECHS et également l’ESIC</t>
+  </si>
+  <si>
+    <t>Carte de cantine de l’armée</t>
+  </si>
+  <si>
+    <t>Titre de droit familial</t>
+  </si>
+  <si>
+    <t>Tout document de droit de la famille délivré par un gouvernement central ou</t>
+  </si>
+  <si>
+    <t>Registraire de naissance/municipalité ou tout acte de naissance du gouvernement local</t>
+  </si>
+  <si>
+    <t>DOC001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1035,14 +1324,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD1048576"/>
+      <selection activeCell="A89" sqref="A89:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="53.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1276,13 +1568,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1299,13 +1591,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1322,13 +1614,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1345,13 +1637,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1368,13 +1660,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1391,13 +1683,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1414,13 +1706,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1437,13 +1729,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -1460,13 +1752,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1483,13 +1775,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -1506,13 +1798,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1529,13 +1821,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1547,6 +1839,1524 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
         <v>12</v>
       </c>
     </row>
